--- a/2025 prediction.xlsx
+++ b/2025 prediction.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\nfl draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\2025NFLDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76663026-CB3C-4CDD-ADBA-DA486832F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A34E53A-3EA5-4FC7-ACCE-58A0142909D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDE39CD1-B759-4CF9-93CE-83EFF19BAED6}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 prediction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="265">
   <si>
     <t>Name</t>
   </si>
@@ -812,6 +825,9 @@
   </si>
   <si>
     <t>isCorrect</t>
+  </si>
+  <si>
+    <t>2025 Actual</t>
   </si>
 </sst>
 </file>
@@ -1305,13 +1321,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1689,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A95900F-A251-4A6C-9169-0C755CE7A466}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H238" sqref="H238"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="R221" sqref="R221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,26 +1732,44 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1739,8 +1789,28 @@
         <f>IF(E2=D2,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <f>IF(K2=J2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <f>L2=F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1760,8 +1830,28 @@
         <f t="shared" ref="F3:F66" si="0">IF(E3=D3,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L66" si="1">IF(K3=J3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N66" si="2">L3=F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1781,8 +1871,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1802,8 +1912,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1823,8 +1953,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1844,8 +1994,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1865,8 +2035,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1886,8 +2076,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1907,8 +2117,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1928,8 +2158,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1949,8 +2199,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1970,8 +2240,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1991,8 +2281,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2012,8 +2322,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2033,8 +2363,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2054,8 +2404,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2075,8 +2445,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2096,8 +2486,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2117,8 +2527,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2138,8 +2568,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2159,8 +2609,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2180,8 +2650,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2201,8 +2691,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2222,8 +2732,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2243,8 +2773,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2264,8 +2814,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2285,8 +2855,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2306,8 +2896,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2327,8 +2937,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2348,8 +2978,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2369,8 +3019,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2390,8 +3060,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2411,8 +3101,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2432,8 +3142,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2453,8 +3183,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2474,8 +3224,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2495,8 +3265,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2516,8 +3306,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2537,8 +3347,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2558,8 +3388,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2579,8 +3429,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2600,8 +3470,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2621,8 +3511,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2642,8 +3552,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2663,8 +3593,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2684,8 +3634,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2705,8 +3675,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2726,8 +3716,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2747,8 +3757,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2768,8 +3798,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N51" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2789,8 +3839,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2810,8 +3880,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2831,8 +3921,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2852,8 +3962,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N55" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2873,8 +4003,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2894,8 +4044,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2915,8 +4085,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2936,8 +4126,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2957,8 +4167,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2978,8 +4208,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2999,8 +4249,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N62" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3020,8 +4290,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3041,8 +4331,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3062,8 +4372,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N65" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3083,8 +4413,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3101,11 +4451,31 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">IF(E67=D67,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F67:F130" si="3">IF(E67=D67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <f t="shared" ref="L67:L130" si="4">IF(K67=J67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N67" t="b">
+        <f t="shared" ref="N67:N130" si="5">L67=F67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3122,11 +4492,31 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
+      </c>
+      <c r="L68" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N68" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3143,11 +4533,31 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N69" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3164,11 +4574,31 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N70" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3185,11 +4615,31 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="L71" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N71" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3206,11 +4656,31 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3227,11 +4697,31 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="L73" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N73" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3248,11 +4738,31 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N74" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3269,11 +4779,31 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>88</v>
+      </c>
+      <c r="I75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N75" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3290,11 +4820,31 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3311,11 +4861,31 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N77" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3332,11 +4902,31 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3353,11 +4943,31 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" t="s">
+        <v>4</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N79" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3374,11 +4984,31 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N80" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3395,11 +5025,31 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1</v>
+      </c>
+      <c r="L81" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N81" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3416,11 +5066,31 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>95</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1</v>
+      </c>
+      <c r="L82" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N82" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3437,11 +5107,31 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>96</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N83" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3458,11 +5148,31 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3479,11 +5189,31 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>98</v>
+      </c>
+      <c r="I85" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N85" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3500,11 +5230,31 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N86" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3521,11 +5271,31 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+      <c r="L87" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N87" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3542,11 +5312,31 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N88" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3563,11 +5353,31 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>102</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+      <c r="L89" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N89" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3584,11 +5394,31 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1</v>
+      </c>
+      <c r="L90" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N90" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3605,11 +5435,31 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>104</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+      <c r="L91" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N91" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3626,11 +5476,31 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>105</v>
+      </c>
+      <c r="I92" t="s">
+        <v>58</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0</v>
+      </c>
+      <c r="L92" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N92" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3647,11 +5517,31 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>106</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1</v>
+      </c>
+      <c r="L93" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N93" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3668,11 +5558,31 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>107</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N94" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3689,11 +5599,31 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>108</v>
+      </c>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1</v>
+      </c>
+      <c r="L95" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N95" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3710,11 +5640,31 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>109</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N96" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3731,11 +5681,31 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" t="s">
+        <v>50</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N97" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3752,11 +5722,31 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+      <c r="L98" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N98" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3773,11 +5763,31 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>112</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1</v>
+      </c>
+      <c r="L99" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N99" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3794,11 +5804,31 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1</v>
+      </c>
+      <c r="L100" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N100" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3815,11 +5845,31 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>114</v>
+      </c>
+      <c r="I101" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+      <c r="L101" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N101" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3836,11 +5886,31 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
+      </c>
+      <c r="L102" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N102" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3857,11 +5927,31 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N103" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3878,11 +5968,31 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1</v>
+      </c>
+      <c r="L104" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N104" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3899,11 +6009,31 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1</v>
+      </c>
+      <c r="L105" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N105" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3920,11 +6050,31 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>119</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1</v>
+      </c>
+      <c r="L106" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N106" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3941,11 +6091,31 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>120</v>
+      </c>
+      <c r="I107" t="s">
+        <v>60</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N107" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3962,11 +6132,31 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1</v>
+      </c>
+      <c r="L108" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N108" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3983,11 +6173,31 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>122</v>
+      </c>
+      <c r="I109" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N109" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4004,11 +6214,31 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>123</v>
+      </c>
+      <c r="I110" t="s">
+        <v>50</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1</v>
+      </c>
+      <c r="K110" s="4">
+        <v>1</v>
+      </c>
+      <c r="L110" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N110" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4025,11 +6255,31 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>124</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1</v>
+      </c>
+      <c r="L111" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N111" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4046,11 +6296,31 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>125</v>
+      </c>
+      <c r="I112" t="s">
+        <v>6</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1</v>
+      </c>
+      <c r="L112" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N112" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4067,11 +6337,31 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>126</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N113" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4088,11 +6378,31 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>127</v>
+      </c>
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
+      <c r="K114" s="4">
+        <v>1</v>
+      </c>
+      <c r="L114" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N114" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4109,11 +6419,31 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>128</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
+      <c r="K115" s="4">
+        <v>0</v>
+      </c>
+      <c r="L115" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N115" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4130,11 +6460,31 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>129</v>
+      </c>
+      <c r="I116" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+      <c r="L116" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N116" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4151,11 +6501,31 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>130</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="L117" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N117" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4172,11 +6542,31 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>131</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="K118" s="4">
+        <v>1</v>
+      </c>
+      <c r="L118" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N118" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4193,11 +6583,31 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>132</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" s="4">
+        <v>1</v>
+      </c>
+      <c r="K119" s="4">
+        <v>1</v>
+      </c>
+      <c r="L119" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N119" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4214,11 +6624,31 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>133</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+      <c r="J120" s="4">
+        <v>1</v>
+      </c>
+      <c r="K120" s="4">
+        <v>1</v>
+      </c>
+      <c r="L120" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N120" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4235,11 +6665,31 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>134</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="L121" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N121" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4256,11 +6706,31 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>135</v>
+      </c>
+      <c r="I122" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="4">
+        <v>1</v>
+      </c>
+      <c r="L122" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N122" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4277,11 +6747,31 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I123" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="4">
+        <v>0</v>
+      </c>
+      <c r="L123" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N123" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -4298,11 +6788,31 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>137</v>
+      </c>
+      <c r="I124" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1</v>
+      </c>
+      <c r="L124" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N124" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -4319,11 +6829,31 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>138</v>
+      </c>
+      <c r="I125" t="s">
+        <v>50</v>
+      </c>
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1</v>
+      </c>
+      <c r="L125" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N125" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4340,11 +6870,31 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>139</v>
+      </c>
+      <c r="I126" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0</v>
+      </c>
+      <c r="L126" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N126" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4361,11 +6911,31 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>140</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1</v>
+      </c>
+      <c r="L127" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N127" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4382,11 +6952,31 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>141</v>
+      </c>
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1</v>
+      </c>
+      <c r="L128" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N128" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4403,11 +6993,31 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I129" t="s">
+        <v>10</v>
+      </c>
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0</v>
+      </c>
+      <c r="L129" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N129" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4424,11 +7034,31 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>143</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="4">
+        <v>1</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1</v>
+      </c>
+      <c r="L130" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N130" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4445,11 +7075,31 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">IF(E131=D131,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F131:F194" si="6">IF(E131=D131,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>144</v>
+      </c>
+      <c r="I131" t="s">
+        <v>4</v>
+      </c>
+      <c r="J131" s="4">
+        <v>1</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1</v>
+      </c>
+      <c r="L131" s="5">
+        <f t="shared" ref="L131:L194" si="7">IF(K131=J131,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N131" t="b">
+        <f t="shared" ref="N131:N194" si="8">L131=F131</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4466,11 +7116,31 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>145</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="4">
+        <v>1</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1</v>
+      </c>
+      <c r="L132" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N132" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4487,11 +7157,31 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>146</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" s="4">
+        <v>1</v>
+      </c>
+      <c r="K133" s="4">
+        <v>1</v>
+      </c>
+      <c r="L133" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N133" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4508,11 +7198,31 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>147</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="4">
+        <v>1</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1</v>
+      </c>
+      <c r="L134" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N134" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4529,11 +7239,31 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>148</v>
+      </c>
+      <c r="I135" t="s">
+        <v>50</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
+        <v>1</v>
+      </c>
+      <c r="L135" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N135" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4550,11 +7280,31 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>149</v>
+      </c>
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="4">
+        <v>1</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0</v>
+      </c>
+      <c r="L136" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N136" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4571,11 +7321,31 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>150</v>
+      </c>
+      <c r="I137" t="s">
+        <v>10</v>
+      </c>
+      <c r="J137" s="4">
+        <v>1</v>
+      </c>
+      <c r="K137" s="4">
+        <v>1</v>
+      </c>
+      <c r="L137" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N137" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4592,11 +7362,31 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>151</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0</v>
+      </c>
+      <c r="L138" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N138" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4613,11 +7403,31 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>152</v>
+      </c>
+      <c r="I139" t="s">
+        <v>60</v>
+      </c>
+      <c r="J139" s="4">
+        <v>1</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1</v>
+      </c>
+      <c r="L139" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N139" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4634,11 +7444,31 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>153</v>
+      </c>
+      <c r="I140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="4">
+        <v>1</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1</v>
+      </c>
+      <c r="L140" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N140" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4655,11 +7485,31 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>154</v>
+      </c>
+      <c r="I141" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="4">
+        <v>1</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0</v>
+      </c>
+      <c r="L141" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N141" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4676,11 +7526,31 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>155</v>
+      </c>
+      <c r="I142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J142" s="4">
+        <v>1</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1</v>
+      </c>
+      <c r="L142" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N142" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4697,11 +7567,31 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>156</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="4">
+        <v>1</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1</v>
+      </c>
+      <c r="L143" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N143" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4718,11 +7608,31 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>157</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" s="4">
+        <v>1</v>
+      </c>
+      <c r="K144" s="4">
+        <v>1</v>
+      </c>
+      <c r="L144" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N144" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4739,11 +7649,31 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>158</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="4">
+        <v>1</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0</v>
+      </c>
+      <c r="L145" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N145" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4760,11 +7690,31 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>159</v>
+      </c>
+      <c r="I146" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" s="4">
+        <v>1</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0</v>
+      </c>
+      <c r="L146" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N146" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4781,11 +7731,31 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>160</v>
+      </c>
+      <c r="I147" t="s">
+        <v>4</v>
+      </c>
+      <c r="J147" s="4">
+        <v>1</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1</v>
+      </c>
+      <c r="L147" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N147" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4802,11 +7772,31 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>161</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" s="4">
+        <v>1</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1</v>
+      </c>
+      <c r="L148" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N148" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4823,11 +7813,31 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>162</v>
+      </c>
+      <c r="I149" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" s="4">
+        <v>1</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1</v>
+      </c>
+      <c r="L149" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N149" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4844,11 +7854,31 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>163</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="4">
+        <v>1</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1</v>
+      </c>
+      <c r="L150" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N150" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4865,11 +7895,31 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>164</v>
+      </c>
+      <c r="I151" t="s">
+        <v>21</v>
+      </c>
+      <c r="J151" s="4">
+        <v>1</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0</v>
+      </c>
+      <c r="L151" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N151" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4886,11 +7936,31 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>165</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="4">
+        <v>1</v>
+      </c>
+      <c r="K152" s="4">
+        <v>0</v>
+      </c>
+      <c r="L152" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N152" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4907,11 +7977,31 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
+        <v>166</v>
+      </c>
+      <c r="I153" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153" s="4">
+        <v>1</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1</v>
+      </c>
+      <c r="L153" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N153" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4928,11 +8018,31 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H154" t="s">
+        <v>167</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="4">
+        <v>1</v>
+      </c>
+      <c r="K154" s="4">
+        <v>1</v>
+      </c>
+      <c r="L154" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N154" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4949,11 +8059,31 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>168</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="4">
+        <v>1</v>
+      </c>
+      <c r="K155" s="4">
+        <v>1</v>
+      </c>
+      <c r="L155" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N155" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4970,11 +8100,31 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>169</v>
+      </c>
+      <c r="I156" t="s">
+        <v>34</v>
+      </c>
+      <c r="J156" s="4">
+        <v>1</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1</v>
+      </c>
+      <c r="L156" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N156" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4991,11 +8141,31 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H157" t="s">
+        <v>170</v>
+      </c>
+      <c r="I157" t="s">
+        <v>4</v>
+      </c>
+      <c r="J157" s="4">
+        <v>1</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1</v>
+      </c>
+      <c r="L157" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N157" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5012,11 +8182,31 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>171</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="4">
+        <v>1</v>
+      </c>
+      <c r="K158" s="4">
+        <v>1</v>
+      </c>
+      <c r="L158" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N158" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5033,11 +8223,31 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
+        <v>172</v>
+      </c>
+      <c r="I159" t="s">
+        <v>28</v>
+      </c>
+      <c r="J159" s="4">
+        <v>1</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1</v>
+      </c>
+      <c r="L159" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N159" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5054,11 +8264,31 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
+        <v>173</v>
+      </c>
+      <c r="I160" t="s">
+        <v>50</v>
+      </c>
+      <c r="J160" s="4">
+        <v>1</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1</v>
+      </c>
+      <c r="L160" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N160" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5075,11 +8305,31 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>174</v>
+      </c>
+      <c r="I161" t="s">
+        <v>28</v>
+      </c>
+      <c r="J161" s="4">
+        <v>1</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1</v>
+      </c>
+      <c r="L161" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N161" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5096,11 +8346,31 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>175</v>
+      </c>
+      <c r="I162" t="s">
+        <v>10</v>
+      </c>
+      <c r="J162" s="4">
+        <v>0</v>
+      </c>
+      <c r="K162" s="4">
+        <v>1</v>
+      </c>
+      <c r="L162" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N162" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5117,11 +8387,31 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>176</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="4">
+        <v>1</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1</v>
+      </c>
+      <c r="L163" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N163" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5138,11 +8428,31 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>177</v>
+      </c>
+      <c r="I164" t="s">
+        <v>4</v>
+      </c>
+      <c r="J164" s="4">
+        <v>0</v>
+      </c>
+      <c r="K164" s="4">
+        <v>0</v>
+      </c>
+      <c r="L164" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N164" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5159,11 +8469,31 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I165" t="s">
+        <v>50</v>
+      </c>
+      <c r="J165" s="4">
+        <v>1</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1</v>
+      </c>
+      <c r="L165" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N165" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5180,11 +8510,31 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>179</v>
+      </c>
+      <c r="I166" t="s">
+        <v>13</v>
+      </c>
+      <c r="J166" s="4">
+        <v>0</v>
+      </c>
+      <c r="K166" s="4">
+        <v>1</v>
+      </c>
+      <c r="L166" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N166" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5201,11 +8551,31 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>180</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167" s="4">
+        <v>1</v>
+      </c>
+      <c r="K167" s="4">
+        <v>0</v>
+      </c>
+      <c r="L167" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N167" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5222,11 +8592,31 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>181</v>
+      </c>
+      <c r="I168" t="s">
+        <v>10</v>
+      </c>
+      <c r="J168" s="4">
+        <v>1</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1</v>
+      </c>
+      <c r="L168" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N168" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5243,11 +8633,31 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>182</v>
+      </c>
+      <c r="I169" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="4">
+        <v>1</v>
+      </c>
+      <c r="K169" s="4">
+        <v>0</v>
+      </c>
+      <c r="L169" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N169" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5264,11 +8674,31 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>183</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" s="4">
+        <v>1</v>
+      </c>
+      <c r="K170" s="4">
+        <v>0</v>
+      </c>
+      <c r="L170" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N170" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5285,11 +8715,31 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>184</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" s="4">
+        <v>1</v>
+      </c>
+      <c r="K171" s="4">
+        <v>1</v>
+      </c>
+      <c r="L171" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N171" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5306,11 +8756,31 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>185</v>
+      </c>
+      <c r="I172" t="s">
+        <v>6</v>
+      </c>
+      <c r="J172" s="4">
+        <v>1</v>
+      </c>
+      <c r="K172" s="4">
+        <v>1</v>
+      </c>
+      <c r="L172" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N172" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5327,11 +8797,31 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
+        <v>186</v>
+      </c>
+      <c r="I173" t="s">
+        <v>21</v>
+      </c>
+      <c r="J173" s="4">
+        <v>1</v>
+      </c>
+      <c r="K173" s="4">
+        <v>1</v>
+      </c>
+      <c r="L173" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N173" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5348,11 +8838,31 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>187</v>
+      </c>
+      <c r="I174" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174" s="4">
+        <v>1</v>
+      </c>
+      <c r="K174" s="4">
+        <v>1</v>
+      </c>
+      <c r="L174" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N174" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5369,11 +8879,31 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>188</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="4">
+        <v>1</v>
+      </c>
+      <c r="K175" s="4">
+        <v>1</v>
+      </c>
+      <c r="L175" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N175" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5390,11 +8920,31 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>189</v>
+      </c>
+      <c r="I176" t="s">
+        <v>6</v>
+      </c>
+      <c r="J176" s="4">
+        <v>1</v>
+      </c>
+      <c r="K176" s="4">
+        <v>0</v>
+      </c>
+      <c r="L176" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N176" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5411,11 +8961,31 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>190</v>
+      </c>
+      <c r="I177" t="s">
+        <v>4</v>
+      </c>
+      <c r="J177" s="4">
+        <v>1</v>
+      </c>
+      <c r="K177" s="4">
+        <v>1</v>
+      </c>
+      <c r="L177" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N177" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5432,11 +9002,31 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>191</v>
+      </c>
+      <c r="I178" t="s">
+        <v>6</v>
+      </c>
+      <c r="J178" s="4">
+        <v>1</v>
+      </c>
+      <c r="K178" s="4">
+        <v>1</v>
+      </c>
+      <c r="L178" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N178" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5453,11 +9043,31 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H179" t="s">
+        <v>192</v>
+      </c>
+      <c r="I179" t="s">
+        <v>6</v>
+      </c>
+      <c r="J179" s="4">
+        <v>1</v>
+      </c>
+      <c r="K179" s="4">
+        <v>1</v>
+      </c>
+      <c r="L179" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N179" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5474,11 +9084,31 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
+        <v>193</v>
+      </c>
+      <c r="I180" t="s">
+        <v>6</v>
+      </c>
+      <c r="J180" s="4">
+        <v>1</v>
+      </c>
+      <c r="K180" s="4">
+        <v>1</v>
+      </c>
+      <c r="L180" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N180" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5495,11 +9125,31 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H181" t="s">
+        <v>194</v>
+      </c>
+      <c r="I181" t="s">
+        <v>4</v>
+      </c>
+      <c r="J181" s="4">
+        <v>1</v>
+      </c>
+      <c r="K181" s="4">
+        <v>1</v>
+      </c>
+      <c r="L181" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N181" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5516,11 +9166,31 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
+        <v>195</v>
+      </c>
+      <c r="I182" t="s">
+        <v>21</v>
+      </c>
+      <c r="J182" s="4">
+        <v>1</v>
+      </c>
+      <c r="K182" s="4">
+        <v>1</v>
+      </c>
+      <c r="L182" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N182" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5537,11 +9207,31 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H183" t="s">
+        <v>196</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+      <c r="J183" s="4">
+        <v>1</v>
+      </c>
+      <c r="K183" s="4">
+        <v>1</v>
+      </c>
+      <c r="L183" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N183" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5558,11 +9248,31 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H184" t="s">
+        <v>197</v>
+      </c>
+      <c r="I184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J184" s="4">
+        <v>1</v>
+      </c>
+      <c r="K184" s="4">
+        <v>1</v>
+      </c>
+      <c r="L184" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N184" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5579,11 +9289,31 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H185" t="s">
+        <v>198</v>
+      </c>
+      <c r="I185" t="s">
+        <v>34</v>
+      </c>
+      <c r="J185" s="4">
+        <v>1</v>
+      </c>
+      <c r="K185" s="4">
+        <v>1</v>
+      </c>
+      <c r="L185" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N185" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5600,11 +9330,31 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>199</v>
+      </c>
+      <c r="I186" t="s">
+        <v>50</v>
+      </c>
+      <c r="J186" s="4">
+        <v>1</v>
+      </c>
+      <c r="K186" s="4">
+        <v>1</v>
+      </c>
+      <c r="L186" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N186" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5621,11 +9371,31 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>200</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+      <c r="J187" s="4">
+        <v>0</v>
+      </c>
+      <c r="K187" s="4">
+        <v>0</v>
+      </c>
+      <c r="L187" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N187" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5642,11 +9412,31 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H188" t="s">
+        <v>201</v>
+      </c>
+      <c r="I188" t="s">
+        <v>4</v>
+      </c>
+      <c r="J188" s="4">
+        <v>1</v>
+      </c>
+      <c r="K188" s="4">
+        <v>1</v>
+      </c>
+      <c r="L188" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N188" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5663,11 +9453,31 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>202</v>
+      </c>
+      <c r="I189" t="s">
+        <v>6</v>
+      </c>
+      <c r="J189" s="4">
+        <v>1</v>
+      </c>
+      <c r="K189" s="4">
+        <v>0</v>
+      </c>
+      <c r="L189" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N189" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5684,11 +9494,31 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H190" t="s">
+        <v>203</v>
+      </c>
+      <c r="I190" t="s">
+        <v>28</v>
+      </c>
+      <c r="J190" s="4">
+        <v>1</v>
+      </c>
+      <c r="K190" s="4">
+        <v>1</v>
+      </c>
+      <c r="L190" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N190" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5705,11 +9535,31 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H191" t="s">
+        <v>204</v>
+      </c>
+      <c r="I191" t="s">
+        <v>21</v>
+      </c>
+      <c r="J191" s="4">
+        <v>1</v>
+      </c>
+      <c r="K191" s="4">
+        <v>1</v>
+      </c>
+      <c r="L191" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N191" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5726,11 +9576,31 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H192" t="s">
+        <v>205</v>
+      </c>
+      <c r="I192" t="s">
+        <v>6</v>
+      </c>
+      <c r="J192" s="4">
+        <v>1</v>
+      </c>
+      <c r="K192" s="4">
+        <v>1</v>
+      </c>
+      <c r="L192" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N192" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5747,11 +9617,31 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
+        <v>206</v>
+      </c>
+      <c r="I193" t="s">
+        <v>34</v>
+      </c>
+      <c r="J193" s="4">
+        <v>1</v>
+      </c>
+      <c r="K193" s="4">
+        <v>1</v>
+      </c>
+      <c r="L193" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N193" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5768,11 +9658,31 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H194" t="s">
+        <v>207</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+      <c r="J194" s="4">
+        <v>1</v>
+      </c>
+      <c r="K194" s="4">
+        <v>1</v>
+      </c>
+      <c r="L194" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N194" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5789,11 +9699,31 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F248" si="3">IF(E195=D195,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F195:F248" si="9">IF(E195=D195,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>208</v>
+      </c>
+      <c r="I195" t="s">
+        <v>21</v>
+      </c>
+      <c r="J195" s="4">
+        <v>1</v>
+      </c>
+      <c r="K195" s="4">
+        <v>0</v>
+      </c>
+      <c r="L195" s="5">
+        <f t="shared" ref="L195:L248" si="10">IF(K195=J195,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N195" t="b">
+        <f t="shared" ref="N195:N248" si="11">L195=F195</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5810,11 +9740,31 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>209</v>
+      </c>
+      <c r="I196" t="s">
+        <v>10</v>
+      </c>
+      <c r="J196" s="4">
+        <v>0</v>
+      </c>
+      <c r="K196" s="4">
+        <v>1</v>
+      </c>
+      <c r="L196" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N196" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5831,11 +9781,31 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>210</v>
+      </c>
+      <c r="I197" t="s">
+        <v>10</v>
+      </c>
+      <c r="J197" s="4">
+        <v>1</v>
+      </c>
+      <c r="K197" s="4">
+        <v>0</v>
+      </c>
+      <c r="L197" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N197" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5852,11 +9822,31 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>211</v>
+      </c>
+      <c r="I198" t="s">
+        <v>6</v>
+      </c>
+      <c r="J198" s="4">
+        <v>1</v>
+      </c>
+      <c r="K198" s="4">
+        <v>1</v>
+      </c>
+      <c r="L198" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N198" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5873,11 +9863,31 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>212</v>
+      </c>
+      <c r="I199" t="s">
+        <v>50</v>
+      </c>
+      <c r="J199" s="4">
+        <v>1</v>
+      </c>
+      <c r="K199" s="4">
+        <v>1</v>
+      </c>
+      <c r="L199" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N199" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5894,11 +9904,31 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
+        <v>213</v>
+      </c>
+      <c r="I200" t="s">
+        <v>28</v>
+      </c>
+      <c r="J200" s="4">
+        <v>1</v>
+      </c>
+      <c r="K200" s="4">
+        <v>1</v>
+      </c>
+      <c r="L200" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N200" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5915,11 +9945,31 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>214</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" s="4">
+        <v>1</v>
+      </c>
+      <c r="K201" s="4">
+        <v>1</v>
+      </c>
+      <c r="L201" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N201" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5936,11 +9986,31 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>215</v>
+      </c>
+      <c r="I202" t="s">
+        <v>58</v>
+      </c>
+      <c r="J202" s="4">
+        <v>1</v>
+      </c>
+      <c r="K202" s="4">
+        <v>1</v>
+      </c>
+      <c r="L202" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N202" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -5957,11 +10027,31 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
+        <v>216</v>
+      </c>
+      <c r="I203" t="s">
+        <v>50</v>
+      </c>
+      <c r="J203" s="4">
+        <v>1</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1</v>
+      </c>
+      <c r="L203" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N203" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -5978,11 +10068,31 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>217</v>
+      </c>
+      <c r="I204" t="s">
+        <v>6</v>
+      </c>
+      <c r="J204" s="4">
+        <v>1</v>
+      </c>
+      <c r="K204" s="4">
+        <v>0</v>
+      </c>
+      <c r="L204" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N204" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -5999,11 +10109,31 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>218</v>
+      </c>
+      <c r="I205" t="s">
+        <v>15</v>
+      </c>
+      <c r="J205" s="4">
+        <v>1</v>
+      </c>
+      <c r="K205" s="4">
+        <v>0</v>
+      </c>
+      <c r="L205" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N205" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6020,11 +10150,31 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
+        <v>219</v>
+      </c>
+      <c r="I206" t="s">
+        <v>10</v>
+      </c>
+      <c r="J206" s="4">
+        <v>1</v>
+      </c>
+      <c r="K206" s="4">
+        <v>1</v>
+      </c>
+      <c r="L206" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N206" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6041,11 +10191,31 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>220</v>
+      </c>
+      <c r="I207" t="s">
+        <v>34</v>
+      </c>
+      <c r="J207" s="4">
+        <v>1</v>
+      </c>
+      <c r="K207" s="4">
+        <v>1</v>
+      </c>
+      <c r="L207" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N207" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6062,11 +10232,31 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>221</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+      <c r="J208" s="4">
+        <v>1</v>
+      </c>
+      <c r="K208" s="4">
+        <v>1</v>
+      </c>
+      <c r="L208" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N208" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6083,11 +10273,31 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H209" t="s">
+        <v>222</v>
+      </c>
+      <c r="I209" t="s">
+        <v>10</v>
+      </c>
+      <c r="J209" s="4">
+        <v>1</v>
+      </c>
+      <c r="K209" s="4">
+        <v>1</v>
+      </c>
+      <c r="L209" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N209" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6104,11 +10314,31 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
+        <v>223</v>
+      </c>
+      <c r="I210" t="s">
+        <v>4</v>
+      </c>
+      <c r="J210" s="4">
+        <v>1</v>
+      </c>
+      <c r="K210" s="4">
+        <v>1</v>
+      </c>
+      <c r="L210" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N210" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6125,11 +10355,31 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
+        <v>224</v>
+      </c>
+      <c r="I211" t="s">
+        <v>21</v>
+      </c>
+      <c r="J211" s="4">
+        <v>1</v>
+      </c>
+      <c r="K211" s="4">
+        <v>1</v>
+      </c>
+      <c r="L211" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N211" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6146,11 +10396,31 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>225</v>
+      </c>
+      <c r="I212" t="s">
+        <v>6</v>
+      </c>
+      <c r="J212" s="4">
+        <v>1</v>
+      </c>
+      <c r="K212" s="4">
+        <v>0</v>
+      </c>
+      <c r="L212" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N212" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6167,11 +10437,31 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>226</v>
+      </c>
+      <c r="I213" t="s">
+        <v>50</v>
+      </c>
+      <c r="J213" s="4">
+        <v>1</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1</v>
+      </c>
+      <c r="L213" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N213" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6188,11 +10478,31 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H214" t="s">
+        <v>227</v>
+      </c>
+      <c r="I214" t="s">
+        <v>21</v>
+      </c>
+      <c r="J214" s="4">
+        <v>1</v>
+      </c>
+      <c r="K214" s="4">
+        <v>1</v>
+      </c>
+      <c r="L214" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N214" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6209,11 +10519,31 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H215" t="s">
+        <v>228</v>
+      </c>
+      <c r="I215" t="s">
+        <v>4</v>
+      </c>
+      <c r="J215" s="4">
+        <v>1</v>
+      </c>
+      <c r="K215" s="4">
+        <v>1</v>
+      </c>
+      <c r="L215" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N215" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6230,11 +10560,31 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H216" t="s">
+        <v>229</v>
+      </c>
+      <c r="I216" t="s">
+        <v>4</v>
+      </c>
+      <c r="J216" s="4">
+        <v>1</v>
+      </c>
+      <c r="K216" s="4">
+        <v>1</v>
+      </c>
+      <c r="L216" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N216" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6251,11 +10601,31 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H217" t="s">
+        <v>230</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="4">
+        <v>1</v>
+      </c>
+      <c r="K217" s="4">
+        <v>1</v>
+      </c>
+      <c r="L217" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N217" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6272,11 +10642,31 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H218" t="s">
+        <v>231</v>
+      </c>
+      <c r="I218" t="s">
+        <v>21</v>
+      </c>
+      <c r="J218" s="4">
+        <v>1</v>
+      </c>
+      <c r="K218" s="4">
+        <v>1</v>
+      </c>
+      <c r="L218" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N218" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6293,11 +10683,31 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>232</v>
+      </c>
+      <c r="I219" t="s">
+        <v>6</v>
+      </c>
+      <c r="J219" s="4">
+        <v>1</v>
+      </c>
+      <c r="K219" s="4">
+        <v>0</v>
+      </c>
+      <c r="L219" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N219" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6314,11 +10724,31 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="s">
+        <v>233</v>
+      </c>
+      <c r="I220" t="s">
+        <v>13</v>
+      </c>
+      <c r="J220" s="4">
+        <v>1</v>
+      </c>
+      <c r="K220" s="4">
+        <v>0</v>
+      </c>
+      <c r="L220" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N220" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6335,11 +10765,31 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H221" t="s">
+        <v>234</v>
+      </c>
+      <c r="I221" t="s">
+        <v>13</v>
+      </c>
+      <c r="J221" s="4">
+        <v>1</v>
+      </c>
+      <c r="K221" s="4">
+        <v>1</v>
+      </c>
+      <c r="L221" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N221" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6356,11 +10806,31 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H222" t="s">
+        <v>235</v>
+      </c>
+      <c r="I222" t="s">
+        <v>4</v>
+      </c>
+      <c r="J222" s="4">
+        <v>1</v>
+      </c>
+      <c r="K222" s="4">
+        <v>1</v>
+      </c>
+      <c r="L222" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N222" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6377,11 +10847,31 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H223" t="s">
+        <v>236</v>
+      </c>
+      <c r="I223" t="s">
+        <v>28</v>
+      </c>
+      <c r="J223" s="4">
+        <v>1</v>
+      </c>
+      <c r="K223" s="4">
+        <v>1</v>
+      </c>
+      <c r="L223" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N223" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6398,11 +10888,31 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H224" t="s">
+        <v>237</v>
+      </c>
+      <c r="I224" t="s">
+        <v>28</v>
+      </c>
+      <c r="J224" s="4">
+        <v>1</v>
+      </c>
+      <c r="K224" s="4">
+        <v>1</v>
+      </c>
+      <c r="L224" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N224" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6419,11 +10929,31 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="s">
+        <v>238</v>
+      </c>
+      <c r="I225" t="s">
+        <v>34</v>
+      </c>
+      <c r="J225" s="4">
+        <v>1</v>
+      </c>
+      <c r="K225" s="4">
+        <v>0</v>
+      </c>
+      <c r="L225" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N225" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6440,11 +10970,31 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
+        <v>239</v>
+      </c>
+      <c r="I226" t="s">
+        <v>10</v>
+      </c>
+      <c r="J226" s="4">
+        <v>1</v>
+      </c>
+      <c r="K226" s="4">
+        <v>1</v>
+      </c>
+      <c r="L226" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N226" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6461,11 +11011,31 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
+        <v>240</v>
+      </c>
+      <c r="I227" t="s">
+        <v>21</v>
+      </c>
+      <c r="J227" s="4">
+        <v>1</v>
+      </c>
+      <c r="K227" s="4">
+        <v>1</v>
+      </c>
+      <c r="L227" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N227" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6482,11 +11052,31 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="s">
+        <v>241</v>
+      </c>
+      <c r="I228" t="s">
+        <v>50</v>
+      </c>
+      <c r="J228" s="4">
+        <v>1</v>
+      </c>
+      <c r="K228" s="4">
+        <v>0</v>
+      </c>
+      <c r="L228" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N228" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6503,11 +11093,31 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H229" t="s">
+        <v>242</v>
+      </c>
+      <c r="I229" t="s">
+        <v>28</v>
+      </c>
+      <c r="J229" s="4">
+        <v>1</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1</v>
+      </c>
+      <c r="L229" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N229" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6524,11 +11134,31 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>243</v>
+      </c>
+      <c r="I230" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" s="4">
+        <v>1</v>
+      </c>
+      <c r="K230" s="4">
+        <v>1</v>
+      </c>
+      <c r="L230" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N230" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6545,11 +11175,31 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="s">
+        <v>244</v>
+      </c>
+      <c r="I231" t="s">
+        <v>6</v>
+      </c>
+      <c r="J231" s="4">
+        <v>1</v>
+      </c>
+      <c r="K231" s="4">
+        <v>1</v>
+      </c>
+      <c r="L231" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N231" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6566,11 +11216,31 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H232" t="s">
+        <v>245</v>
+      </c>
+      <c r="I232" t="s">
+        <v>4</v>
+      </c>
+      <c r="J232" s="4">
+        <v>1</v>
+      </c>
+      <c r="K232" s="4">
+        <v>1</v>
+      </c>
+      <c r="L232" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N232" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6587,11 +11257,31 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H233" t="s">
+        <v>246</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" s="4">
+        <v>1</v>
+      </c>
+      <c r="K233" s="4">
+        <v>1</v>
+      </c>
+      <c r="L233" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N233" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6608,11 +11298,31 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="s">
+        <v>247</v>
+      </c>
+      <c r="I234" t="s">
+        <v>4</v>
+      </c>
+      <c r="J234" s="4">
+        <v>1</v>
+      </c>
+      <c r="K234" s="4">
+        <v>0</v>
+      </c>
+      <c r="L234" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N234" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6629,11 +11339,31 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="s">
+        <v>248</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" s="4">
+        <v>1</v>
+      </c>
+      <c r="K235" s="4">
+        <v>0</v>
+      </c>
+      <c r="L235" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N235" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6650,11 +11380,31 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="s">
+        <v>249</v>
+      </c>
+      <c r="I236" t="s">
+        <v>60</v>
+      </c>
+      <c r="J236" s="4">
+        <v>1</v>
+      </c>
+      <c r="K236" s="4">
+        <v>0</v>
+      </c>
+      <c r="L236" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N236" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6671,11 +11421,31 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H237" t="s">
+        <v>250</v>
+      </c>
+      <c r="I237" t="s">
+        <v>6</v>
+      </c>
+      <c r="J237" s="4">
+        <v>1</v>
+      </c>
+      <c r="K237" s="4">
+        <v>1</v>
+      </c>
+      <c r="L237" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N237" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6692,11 +11462,31 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="s">
+        <v>251</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" s="4">
+        <v>1</v>
+      </c>
+      <c r="K238" s="4">
+        <v>1</v>
+      </c>
+      <c r="L238" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N238" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6713,11 +11503,31 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H239" t="s">
+        <v>252</v>
+      </c>
+      <c r="I239" t="s">
+        <v>34</v>
+      </c>
+      <c r="J239" s="4">
+        <v>1</v>
+      </c>
+      <c r="K239" s="4">
+        <v>1</v>
+      </c>
+      <c r="L239" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N239" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6734,11 +11544,31 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H240" t="s">
+        <v>253</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240" s="4">
+        <v>1</v>
+      </c>
+      <c r="K240" s="4">
+        <v>1</v>
+      </c>
+      <c r="L240" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N240" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6755,11 +11585,31 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H241" t="s">
+        <v>254</v>
+      </c>
+      <c r="I241" t="s">
+        <v>4</v>
+      </c>
+      <c r="J241" s="4">
+        <v>1</v>
+      </c>
+      <c r="K241" s="4">
+        <v>1</v>
+      </c>
+      <c r="L241" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N241" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6776,11 +11626,31 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H242" t="s">
+        <v>255</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242" s="4">
+        <v>1</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1</v>
+      </c>
+      <c r="L242" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N242" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6797,11 +11667,31 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H243" t="s">
+        <v>256</v>
+      </c>
+      <c r="I243" t="s">
+        <v>60</v>
+      </c>
+      <c r="J243" s="4">
+        <v>1</v>
+      </c>
+      <c r="K243" s="4">
+        <v>1</v>
+      </c>
+      <c r="L243" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N243" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6818,11 +11708,31 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H244" t="s">
+        <v>257</v>
+      </c>
+      <c r="I244" t="s">
+        <v>50</v>
+      </c>
+      <c r="J244" s="4">
+        <v>1</v>
+      </c>
+      <c r="K244" s="4">
+        <v>1</v>
+      </c>
+      <c r="L244" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N244" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6839,11 +11749,31 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="s">
+        <v>258</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" s="4">
+        <v>1</v>
+      </c>
+      <c r="K245" s="4">
+        <v>0</v>
+      </c>
+      <c r="L245" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N245" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6860,11 +11790,31 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="s">
+        <v>259</v>
+      </c>
+      <c r="I246" t="s">
+        <v>50</v>
+      </c>
+      <c r="J246" s="4">
+        <v>1</v>
+      </c>
+      <c r="K246" s="4">
+        <v>0</v>
+      </c>
+      <c r="L246" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N246" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6881,11 +11831,31 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="s">
+        <v>260</v>
+      </c>
+      <c r="I247" t="s">
+        <v>10</v>
+      </c>
+      <c r="J247" s="4">
+        <v>1</v>
+      </c>
+      <c r="K247" s="4">
+        <v>0</v>
+      </c>
+      <c r="L247" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N247" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6902,27 +11872,55 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H248" t="s">
+        <v>261</v>
+      </c>
+      <c r="I248" t="s">
+        <v>28</v>
+      </c>
+      <c r="J248" s="4">
+        <v>1</v>
+      </c>
+      <c r="K248" s="4">
+        <v>1</v>
+      </c>
+      <c r="L248" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N248" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F249" s="1">
         <f>SUM(F2:F248)</f>
         <v>172</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L249" s="6">
+        <f>SUM(L2:L248)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F250" s="3">
         <f>F249/247</f>
         <v>0.69635627530364375</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H251" s="2"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H252" s="2"/>
+      <c r="L250" s="7">
+        <f>L249/247</f>
+        <v>0.72064777327935226</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G252" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
